--- a/data/rawdata.xlsx
+++ b/data/rawdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Al Capone\Desktop\INN MAIDR\Statistikk\project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Al Capone\Desktop\INN MAIDR\Statistikk\project1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEC2AAF-0994-46BC-88A8-4E0CE3F60150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00635B81-5FC3-4DE6-9196-6A7A12FA3C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4D6BD73D-7446-41A0-A804-E4FF60CC9A72}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>subject</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>lac.4.vo2</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>post</t>
   </si>
 </sst>
 </file>
@@ -107,9 +113,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -427,7 +432,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,8 +467,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
       <c r="C2">
         <v>24</v>
@@ -486,322 +491,322 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
       <c r="C3">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="F3">
-        <v>56.1</v>
+        <v>86</v>
       </c>
       <c r="G3">
-        <v>10.5</v>
+        <v>18.3</v>
       </c>
       <c r="H3">
-        <v>2070</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F4">
-        <v>81.900000000000006</v>
+        <v>56.1</v>
       </c>
       <c r="G4">
-        <v>14.7</v>
+        <v>10.5</v>
       </c>
       <c r="H4">
-        <v>4166</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F5">
-        <v>93.4</v>
-      </c>
-      <c r="G5" s="1">
-        <v>14.8</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4458</v>
+        <v>56.1</v>
+      </c>
+      <c r="G5">
+        <v>10.8</v>
+      </c>
+      <c r="H5">
+        <v>2104</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="F6">
-        <v>80.7</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="G6">
-        <v>13.2</v>
+        <v>14.7</v>
       </c>
       <c r="H6">
-        <v>3902</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
       <c r="C7">
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F7">
-        <v>70.599999999999994</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="G7">
-        <v>10.6</v>
+        <v>13.8</v>
       </c>
       <c r="H7">
-        <v>2991</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
       <c r="E8">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="F8">
-        <v>66.5</v>
+        <v>93.4</v>
       </c>
       <c r="G8">
-        <v>10.4</v>
+        <v>14.8</v>
       </c>
       <c r="H8">
-        <v>2705</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F9">
-        <v>86</v>
+        <v>93.1</v>
       </c>
       <c r="G9">
-        <v>18.3</v>
+        <v>14.9</v>
       </c>
       <c r="H9">
-        <v>4918</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="F10">
-        <v>56.1</v>
+        <v>80.7</v>
       </c>
       <c r="G10">
-        <v>10.8</v>
+        <v>13.2</v>
       </c>
       <c r="H10">
-        <v>2104</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="F11">
-        <v>81.900000000000006</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="G11">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="H11">
-        <v>3868</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F12">
-        <v>93.1</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="G12">
-        <v>14.9</v>
+        <v>10.6</v>
       </c>
       <c r="H12">
-        <v>4593</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="F13">
-        <v>79.900000000000006</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="G13">
-        <v>13.9</v>
+        <v>10.4</v>
       </c>
       <c r="H13">
-        <v>4053</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F14">
-        <v>70.599999999999994</v>
+        <v>66.5</v>
       </c>
       <c r="G14">
         <v>10.4</v>
       </c>
       <c r="H14">
-        <v>2955</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15">
-        <v>2</v>
+      <c r="B15" t="s">
+        <v>13</v>
       </c>
       <c r="C15">
         <v>27</v>
@@ -824,7 +829,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H15">
-    <sortCondition ref="B2:B15"/>
+    <sortCondition ref="A1:A15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
